--- a/Source/Excel/TAF2_PR-205a/PR-205a_RC.xlsx
+++ b/Source/Excel/TAF2_PR-205a/PR-205a_RC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>FG B/10-11</t>
+  </si>
+  <si>
+    <t>New pedestals</t>
+  </si>
+  <si>
+    <t>F1/C</t>
+  </si>
+  <si>
+    <t>F2/C</t>
+  </si>
+  <si>
+    <t>F3/C</t>
+  </si>
+  <si>
+    <t>F9/C</t>
   </si>
 </sst>
 </file>
@@ -612,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,18 +2005,23 @@
         <v>46</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>48</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D28" s="1">
         <v>-2</v>
@@ -2010,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="10">
-        <v>918000</v>
+        <v>1836000</v>
       </c>
       <c r="G28" s="8">
         <v>0.2</v>
@@ -2025,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L28" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6">
         <v>0</v>
@@ -2037,24 +2057,24 @@
         <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="Q28" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>12</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D29" s="1">
         <v>-2</v>
@@ -2063,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="10">
-        <v>918000</v>
+        <v>1836000</v>
       </c>
       <c r="G29" s="8">
         <v>0.2</v>
@@ -2078,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L29" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
@@ -2090,24 +2110,24 @@
         <v>1</v>
       </c>
       <c r="O29" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P29" s="1">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="Q29" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D30" s="1">
         <v>-2</v>
@@ -2116,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="10">
-        <v>918000</v>
+        <v>1836000</v>
       </c>
       <c r="G30" s="8">
         <v>0.2</v>
@@ -2131,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="L30" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -2143,24 +2163,24 @@
         <v>1</v>
       </c>
       <c r="O30" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P30" s="1">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="Q30" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D31" s="1">
         <v>-2</v>
@@ -2169,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="10">
-        <v>918000</v>
+        <v>1836000</v>
       </c>
       <c r="G31" s="8">
         <v>0.2</v>
@@ -2184,10 +2204,10 @@
         <v>2</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="L31" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M31" s="6">
         <v>0</v>
@@ -2196,77 +2216,32 @@
         <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q31" s="1">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="1">
-        <v>59</v>
-      </c>
-      <c r="C32" s="1">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>-2</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>918000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="H32" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="1">
-        <v>90</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O32" s="1">
-        <v>68</v>
-      </c>
-      <c r="P32" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>-2</v>
+      <c r="A32" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>-2</v>
@@ -2290,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L33" s="1">
         <v>90</v>
@@ -2302,10 +2277,10 @@
         <v>1</v>
       </c>
       <c r="O33" s="1">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="P33" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="1">
         <v>-2</v>
@@ -2313,13 +2288,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
         <v>-2</v>
@@ -2343,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L34" s="1">
         <v>90</v>
@@ -2355,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="O34" s="1">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="P34" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
         <v>-2</v>
@@ -2366,13 +2341,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
         <v>-2</v>
@@ -2396,24 +2371,289 @@
         <v>2</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="1">
+        <v>90</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>39</v>
+      </c>
+      <c r="P35" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>918000</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="1">
+        <v>90</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>39</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>918000</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="1">
-        <v>90</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1">
+      <c r="L37" s="1">
+        <v>90</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>68</v>
+      </c>
+      <c r="P37" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>918000</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="1">
+        <v>90</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>68</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>77</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>918000</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H39" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="1">
+        <v>90</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
         <v>86</v>
       </c>
-      <c r="P35" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1">
+      <c r="P39" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>918000</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="1">
+        <v>90</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>86</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
         <v>-2</v>
       </c>
     </row>

--- a/Source/Excel/TAF2_PR-205a/PR-205a_RC.xlsx
+++ b/Source/Excel/TAF2_PR-205a/PR-205a_RC.xlsx
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2268,7 @@
         <v>51</v>
       </c>
       <c r="L33" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>51</v>
       </c>
       <c r="L34" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M34" s="6">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>51</v>
       </c>
       <c r="L35" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>51</v>
       </c>
       <c r="L36" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>56</v>
       </c>
       <c r="L37" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>56</v>
       </c>
       <c r="L38" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>56</v>
       </c>
       <c r="L39" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M39" s="6">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>56</v>
       </c>
       <c r="L40" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M40" s="6">
         <v>0</v>
